--- a/Tables/NamedEntitiesMap.xlsx
+++ b/Tables/NamedEntitiesMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\VŠE\DP\Tabulky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondra\Documents\VŠE\DP\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C4ADD-37D7-4754-B1B7-4702704DDCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A61FDE-6653-492A-AA99-FBA89FC7AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kompletní seznam" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="97">
   <si>
     <t>Mapa kategorií osobních údajů</t>
   </si>
@@ -674,9 +673,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -692,32 +688,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -770,15 +742,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -805,6 +768,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,8 +807,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,14 +1098,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="31.44140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="31.44140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
@@ -1115,1031 +1114,1051 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="33"/>
+      <c r="E6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="33"/>
+      <c r="E7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="33"/>
+      <c r="C8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="33"/>
+      <c r="E9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11">
         <v>4</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="33"/>
+      <c r="C11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="33"/>
+      <c r="E12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="33"/>
+      <c r="C13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="33"/>
+      <c r="E14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="33"/>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>13</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="33"/>
+      <c r="C18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="33"/>
+      <c r="C19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>15</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="33"/>
+      <c r="C20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>16</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11">
         <v>10</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="33" t="s">
+      <c r="E21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>17</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="33"/>
+      <c r="C22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>18</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>19</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="33"/>
+      <c r="C24" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>20</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="13">
+        <v>20</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
-        <v>21</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="13">
+        <v>21</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="33"/>
+      <c r="C26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>22</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="33"/>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
-        <v>23</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="13">
+        <v>23</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="33"/>
+      <c r="C28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>24</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="33"/>
+      <c r="E29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>25</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="33"/>
+      <c r="C30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>26</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>27</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="33"/>
+      <c r="C32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>28</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>30</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="33"/>
+      <c r="E35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="33"/>
+      <c r="C36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>32</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="33"/>
+      <c r="E37" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>33</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="33"/>
+      <c r="E38" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>34</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="30" t="s">
+      <c r="C39" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>35</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="33"/>
+      <c r="C40" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>36</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="15" t="s">
+      <c r="E41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="33"/>
+      <c r="C42" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>38</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="33"/>
+      <c r="E43" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>40</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="C44" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="33"/>
+      <c r="E44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>41</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="33"/>
+      <c r="C45" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>42</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="30" t="s">
+      <c r="C46" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>43</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="36"/>
+      <c r="C47" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>45</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="33"/>
+      <c r="C49" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>46</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="34" t="s">
+      <c r="C50" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="36"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="57"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>48</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="33" t="s">
+      <c r="E52" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
+      <c r="A53" s="13">
         <v>49</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="33" t="s">
+      <c r="E53" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
+      <c r="A54" s="13">
         <v>50</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="C54" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="33"/>
+      <c r="E54" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+      <c r="A55" s="13">
         <v>51</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="C55" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="33" t="s">
+      <c r="E55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>52</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="C56" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="33"/>
+      <c r="E56" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
+      <c r="A57" s="13">
         <v>53</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="33"/>
+      <c r="E57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
+      <c r="A58" s="13">
         <v>54</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="33"/>
+      <c r="E58" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14">
+      <c r="A59" s="13">
         <v>55</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="C59" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="33"/>
+      <c r="E59" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="14">
+      <c r="A60" s="13">
         <v>56</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="C60" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="33"/>
+      <c r="E60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
+      <c r="A61" s="13">
         <v>57</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16">
+      <c r="C61" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="24"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
         <v>58</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="36" t="s">
+      <c r="C62" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="24" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="63" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="15">
+        <v>59</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="27"/>
+      <c r="B85" s="18"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="10"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="28"/>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="28"/>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="27"/>
+      <c r="B91" s="18"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A2:F3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E85:E1048576 E35:E47 E6:E15 E17:E33 E1 E49:E50 E52:E62" xr:uid="{4F8B903C-EAB7-456B-8464-717627A36EB1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E85:E1048576 E35:E47 E6:E15 E17:E33 E1 E49:E50 E52:E63" xr:uid="{4F8B903C-EAB7-456B-8464-717627A36EB1}">
       <formula1>"Ano,Ne"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C85:C1048576 C35:C47 C6:C15 C17:C33 C1 C49:C50 C52:C62" xr:uid="{9A1EE361-7405-4BF7-8A39-9986CB9042C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C85:C1048576 C35:C47 C6:C15 C17:C33 C1 C49:C50 C52:C63" xr:uid="{9A1EE361-7405-4BF7-8A39-9986CB9042C4}">
       <formula1>"-,primární,sekundární"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2152,14 +2171,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576D745-D70B-482C-9DDE-FD10573A8F2F}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="34.88671875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="34.88671875" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
@@ -2168,686 +2187,686 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="33"/>
+      <c r="E6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="33"/>
+      <c r="E7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="33"/>
+      <c r="C9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="33"/>
+      <c r="E10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="33"/>
+      <c r="E11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="36" t="s">
+      <c r="C12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="33"/>
+      <c r="C14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="33"/>
+      <c r="C15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="33"/>
+      <c r="C16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="33"/>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11">
         <v>59</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="33"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11">
         <v>59</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>21</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="13">
+        <v>21</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="41"/>
+      <c r="C21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>23</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="13">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="33"/>
+      <c r="C22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>24</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="33"/>
+      <c r="E23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>25</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="35">
+      <c r="C24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="26">
         <v>59</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>30</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="33"/>
+      <c r="E26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>31</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="33"/>
+      <c r="C27" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>32</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="33"/>
+      <c r="E28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>33</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="33"/>
+      <c r="E29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>38</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="33"/>
+      <c r="E30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>40</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="33"/>
+      <c r="E31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>42</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="35">
+      <c r="C32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="26">
         <v>59</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>45</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="33"/>
+      <c r="C34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>46</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="34" t="s">
+      <c r="C35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>49</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>52</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="41"/>
+      <c r="E38" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>53</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="33"/>
+      <c r="E39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>54</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="33"/>
+      <c r="E40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>55</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="33"/>
+      <c r="E41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>56</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="33"/>
+      <c r="E42" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>59</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="C43" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="33" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2924,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060CCC84-FC1D-47A6-A89B-0888EA9AE31B}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E44"/>
     </sheetView>
   </sheetViews>
@@ -2940,610 +2959,610 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="20"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="37" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="50">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>89</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
+      <c r="B9" s="38">
         <v>4</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+      <c r="B10" s="38">
         <v>6</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="53"/>
+      <c r="D10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="41"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
+      <c r="B11" s="38">
         <v>7</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
+      <c r="B12" s="38">
         <v>9</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="53" t="s">
+      <c r="D12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="56">
+      <c r="B13" s="44">
         <v>10</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
+      <c r="B15" s="38">
         <v>12</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="53"/>
+      <c r="D15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="41"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
+      <c r="B16" s="38">
         <v>13</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="53"/>
+      <c r="D16" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="41"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
+      <c r="B17" s="38">
         <v>14</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="53"/>
+      <c r="D17" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="41"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="50">
+      <c r="B18" s="38">
         <v>15</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="53"/>
+      <c r="D18" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="41"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
+      <c r="B19" s="38">
         <v>16</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="50">
+      <c r="B20" s="38">
         <v>17</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="53">
+      <c r="D20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="41">
         <v>59</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="50">
+      <c r="B21" s="38">
         <v>19</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="53">
+      <c r="D21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="41">
         <v>59</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="50">
-        <v>21</v>
-      </c>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="38">
+        <v>21</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="53"/>
+      <c r="D22" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="41"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="50">
-        <v>23</v>
-      </c>
-      <c r="C23" s="51" t="s">
+      <c r="B23" s="38">
+        <v>23</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="53"/>
+      <c r="D23" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="41"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="50">
+      <c r="B24" s="38">
         <v>24</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="56">
+      <c r="B25" s="44">
         <v>25</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="59">
+      <c r="D25" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="47">
         <v>59</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="50">
+      <c r="B27" s="38">
         <v>30</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="41" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="50">
+      <c r="B28" s="38">
         <v>31</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="53"/>
+      <c r="D28" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="41"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="50">
+      <c r="B29" s="38">
         <v>32</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="53" t="s">
+      <c r="D29" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="50">
+      <c r="B30" s="38">
         <v>33</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="53" t="s">
+      <c r="D30" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="50">
+      <c r="B31" s="38">
         <v>38</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="41" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="50">
+      <c r="B32" s="38">
         <v>40</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="41" t="s">
         <v>80</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="56">
+      <c r="B33" s="44">
         <v>42</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="59">
+      <c r="D33" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="47">
         <v>59</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="50">
+      <c r="B35" s="38">
         <v>45</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="53"/>
+      <c r="D35" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="41"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="56">
+      <c r="B36" s="44">
         <v>46</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="59" t="s">
+      <c r="D36" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="50">
+      <c r="B38" s="38">
         <v>49</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="53" t="s">
+      <c r="D38" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="50">
+      <c r="B39" s="38">
         <v>52</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="53" t="s">
+      <c r="D39" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="50">
+      <c r="B40" s="38">
         <v>53</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="53" t="s">
+      <c r="D40" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="41" t="s">
         <v>74</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="50">
+      <c r="B41" s="38">
         <v>54</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="53" t="s">
+      <c r="D41" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="50">
+      <c r="B42" s="38">
         <v>55</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="53" t="s">
+      <c r="D42" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="50">
+      <c r="B43" s="38">
         <v>56</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="53" t="s">
+      <c r="D43" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="41" t="s">
         <v>81</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="56">
+      <c r="B44" s="44">
         <v>59</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="59" t="s">
+      <c r="D44" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="7"/>
